--- a/statistics/HistoricalDistanceData/historical_distance/Q60441824-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60441824-en.xlsx
@@ -31,163 +31,163 @@
     <t>uri</t>
   </si>
   <si>
+    <t>What we learned from the Greater Minnesota vote in 2020</t>
+  </si>
+  <si>
     <t>Trump got more votes in Minnesota in 2020 than he did in 2016. But Biden got way more than Clinton did</t>
   </si>
   <si>
-    <t>What we learned from the Greater Minnesota vote in 2020</t>
+    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+  </si>
+  <si>
+    <t>Heartland Poll Release: Biden Leads in Midwest</t>
+  </si>
+  <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
+  </si>
+  <si>
+    <t>Minnesota Poll Results</t>
+  </si>
+  <si>
+    <t>MN SEN General Election Key Findings Memo - Harper Polling</t>
+  </si>
+  <si>
+    <t>Minnesota: Election Tools, Deadlines, Dates, Rules, and Links</t>
   </si>
   <si>
     <t>POLL: Republican Lewis closes on DFL candidate Smith for US Senate seat in Minnesota</t>
   </si>
   <si>
+    <t>Polls 2020-11-02 (smaller states)</t>
+  </si>
+  <si>
+    <t>Michigan, Pennsylvania and Wisconsin Set to Flip in U.S. Election</t>
+  </si>
+  <si>
+    <t>Latest Georgia and Minnesota Voting Intention (12 - 17 September)</t>
+  </si>
+  <si>
+    <t>State Canvassing Board Certifies Results of 2020 General Election</t>
+  </si>
+  <si>
     <t>Live updates from 14 state primaries</t>
   </si>
   <si>
-    <t>Latest Georgia and Minnesota Voting Intention (12 - 17 September)</t>
-  </si>
-  <si>
-    <t>Michigan, Pennsylvania and Wisconsin Set to Flip in U.S. Election</t>
-  </si>
-  <si>
-    <t>State Canvassing Board Certifies Results of 2020 General Election</t>
-  </si>
-  <si>
-    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
-  </si>
-  <si>
-    <t>Polls 2020-11-02 (smaller states)</t>
-  </si>
-  <si>
-    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
+  </si>
+  <si>
+    <t>2020 Election Forecast</t>
   </si>
   <si>
     <t>Elections &amp; Voting</t>
   </si>
   <si>
-    <t>MN SEN General Election Key Findings Memo - Harper Polling</t>
-  </si>
-  <si>
-    <t>2020 Election Forecast</t>
-  </si>
-  <si>
-    <t>Minnesota Poll Results</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
-  </si>
-  <si>
-    <t>Heartland Poll Release: Biden Leads in Midwest</t>
-  </si>
-  <si>
-    <t>Minnesota: Election Tools, Deadlines, Dates, Rules, and Links</t>
+    <t>2020-11-05T11:12:13UTC</t>
   </si>
   <si>
     <t>2020-11-04T12:23:48UTC</t>
   </si>
   <si>
-    <t>2020-11-05T11:12:13UTC</t>
+    <t>2019-02-09T14:00:04UTC</t>
+  </si>
+  <si>
+    <t>2020-08-06T15:46:54UTC</t>
+  </si>
+  <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-09-09T10:00:38UTC</t>
+  </si>
+  <si>
+    <t>2020-10-27T18:33:31UTC</t>
   </si>
   <si>
     <t>2020-10-08T17:59:52UTC</t>
   </si>
   <si>
+    <t>2020-11-02T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-02T14:20:00UTC</t>
+  </si>
+  <si>
+    <t>2020-09-20T14:29:25UTC</t>
+  </si>
+  <si>
     <t>2020-03-01T00:00:00UTC</t>
   </si>
   <si>
-    <t>2020-09-20T14:29:25UTC</t>
-  </si>
-  <si>
-    <t>2020-11-02T14:20:00UTC</t>
-  </si>
-  <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-09-09T10:00:38UTC</t>
-  </si>
-  <si>
-    <t>2020-11-02T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-02-09T14:00:04UTC</t>
+    <t>2020-07-27T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2020-10-27T18:33:31UTC</t>
-  </si>
-  <si>
-    <t>2020-07-27T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T15:46:54UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_2_to_30</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_2_to_30</t>
+    <t>https://www.minnpost.com/greater-minnesota/2020/11/what-we-learned-from-the-greater-minnesota-vote-in-2020/</t>
   </si>
   <si>
     <t>https://www.minnpost.com/elections/2020/11/trump-got-more-votes-in-minnesota-in-2020-than-he-did-in-2016-but-biden-got-way-more-than-clinton-did/</t>
   </si>
   <si>
-    <t>https://www.minnpost.com/greater-minnesota/2020/11/what-we-learned-from-the-greater-minnesota-vote-in-2020/</t>
+    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+  </si>
+  <si>
+    <t>https://www.focusonruralamerica.com/2020/08/06/heartland-poll-biden-leads-in-midwest/</t>
+  </si>
+  <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
+  </si>
+  <si>
+    <t>https://gravismarketing.com/minnesota-poll-results/</t>
+  </si>
+  <si>
+    <t>https://www.scribd.com/document/474637138/MN-SEN-General-Election-Key-Findings-Memo-Harper-Polling</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/minnesota/</t>
   </si>
   <si>
     <t>https://www.kaaltv.com/minnesota-news/surveyusa-poll/5888415/</t>
   </si>
   <si>
+    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
+  </si>
+  <si>
+    <t>https://researchco.ca/2020/11/02/us2020-eight-states-uspoli/</t>
+  </si>
+  <si>
+    <t>https://redfieldandwiltonstrategies.com/latest-georgia-and-minnesota-voting-intention-12-17-september/</t>
+  </si>
+  <si>
+    <t>https://www.sos.state.mn.us/about-the-office/news-room/state-canvassing-board-certifies-results-of-2020-general-election/</t>
+  </si>
+  <si>
     <t>https://www.usatoday.com/story/news/politics/elections/results/2020/03/03/super-tuesday-primary-results-live-updates-14-state-primaries/4945110002/</t>
   </si>
   <si>
-    <t>https://redfieldandwiltonstrategies.com/latest-georgia-and-minnesota-voting-intention-12-17-september/</t>
-  </si>
-  <si>
-    <t>https://researchco.ca/2020/11/02/us2020-eight-states-uspoli/</t>
-  </si>
-  <si>
-    <t>https://www.sos.state.mn.us/about-the-office/news-room/state-canvassing-board-certifies-results-of-2020-general-election/</t>
-  </si>
-  <si>
-    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
+  </si>
+  <si>
+    <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
     <t>https://www.sos.state.mn.us/elections-voting/</t>
-  </si>
-  <si>
-    <t>https://www.scribd.com/document/474637138/MN-SEN-General-Election-Key-Findings-Memo-Harper-Polling</t>
-  </si>
-  <si>
-    <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://gravismarketing.com/minnesota-poll-results/</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
-  </si>
-  <si>
-    <t>https://www.focusonruralamerica.com/2020/08/06/heartland-poll-biden-leads-in-midwest/</t>
-  </si>
-  <si>
-    <t>https://www.vote.org/state/minnesota/</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -606,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -807,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -824,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -875,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
